--- a/Stories/PopularityCrisis_Story.xlsx
+++ b/Stories/PopularityCrisis_Story.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DECO3801-Synergistiscs\Stories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/533b0e9be467b961/Documents/GitHub/DECO3801-Synergistiscs/Stories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A59D39-FE17-42B6-916B-90634F883E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{17A59D39-FE17-42B6-916B-90634F883E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10C2CDF6-DD88-48F5-93FE-638750B9EB86}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F843D54-0E0D-4798-8E54-EF52D9E6604F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2F843D54-0E0D-4798-8E54-EF52D9E6604F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,10 +188,10 @@
     <t>I don't live in other Kingdoms so I'm not worried about other Kings</t>
   </si>
   <si>
-    <t>TOWN_SQUARE</t>
-  </si>
-  <si>
     <t>AGRICULTURAL</t>
+  </si>
+  <si>
+    <t>TOWN_MARKET</t>
   </si>
 </sst>
 </file>
@@ -711,18 +711,18 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="50.140625" customWidth="1"/>
+    <col min="7" max="7" width="50.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -736,7 +736,7 @@
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="13"/>
     </row>
@@ -763,7 +763,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>8</v>
@@ -787,7 +787,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" ht="85.5">
+    <row r="5" spans="1:7" ht="69">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" ht="42.75">
+    <row r="8" spans="1:7" ht="41.4">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" ht="114">
+    <row r="10" spans="1:7" ht="110.4">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" ht="57">
+    <row r="12" spans="1:7" ht="41.4">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -944,7 +944,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" ht="57">
+    <row r="14" spans="1:7" ht="55.2">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
